--- a/Document Library/Bill Of Materials/V 0.9.4 complete.xlsx
+++ b/Document Library/Bill Of Materials/V 0.9.4 complete.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,21 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6D283334-7C1E-48A7-B2B1-5E1754DFD528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:40009_{6D283334-7C1E-48A7-B2B1-5E1754DFD528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCC12147-0E03-44E4-8B01-EE3839AD6CC3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V 0.9.4 complete" sheetId="1" r:id="rId1"/>
     <sheet name="Electronics" sheetId="2" r:id="rId2"/>
     <sheet name="Hardware" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="89">
   <si>
     <t>Part name</t>
   </si>
@@ -294,7 +306,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1128,7 +1140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView topLeftCell="A47" workbookViewId="0">
@@ -1845,7 +1857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1946,10 +1958,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2137,36 +2151,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-    </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="B26">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2323,31 +2329,31 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -2355,47 +2361,47 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B51">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B52">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B54">
-        <v>72</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B55">
         <v>141</v>
@@ -2403,47 +2409,47 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B57">
-        <v>137</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -2451,132 +2457,116 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="B64">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B69">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77">
         <v>4</v>
       </c>
     </row>
